--- a/tests/data/genuine/empty.xlsx
+++ b/tests/data/genuine/empty.xlsx
@@ -385,8 +385,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>This is cell A1 in Sheet 1</t>
+        </is>
       </c>
     </row>
     <row r="5" spans="1:7">
